--- a/data/Lakes/LakeDuddingComposite_bf547b7d5c.xlsx
+++ b/data/Lakes/LakeDuddingComposite_bf547b7d5c.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -527,7 +527,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -558,7 +558,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -620,7 +620,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -651,7 +651,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -682,7 +682,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -717,7 +717,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -748,7 +748,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -779,7 +779,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -810,7 +810,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -841,7 +841,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -872,7 +872,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -907,7 +907,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -942,7 +942,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -973,7 +973,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -1295,7 +1295,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
@@ -1489,7 +1489,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
@@ -1520,7 +1520,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
@@ -1582,7 +1582,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
@@ -1679,7 +1679,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
@@ -1807,7 +1807,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
@@ -1838,7 +1838,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -1869,7 +1869,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
@@ -1904,7 +1904,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
@@ -1970,7 +1970,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
@@ -2032,7 +2032,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
@@ -2063,7 +2063,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
@@ -2129,7 +2129,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
@@ -2164,7 +2164,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
@@ -2226,7 +2226,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
@@ -2257,7 +2257,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
@@ -2288,7 +2288,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
@@ -2354,7 +2354,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
@@ -2389,7 +2389,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
@@ -2420,7 +2420,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
@@ -2482,7 +2482,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
@@ -2513,7 +2513,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
@@ -2641,7 +2641,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
@@ -2672,7 +2672,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C72" s="2" t="n">
@@ -2765,7 +2765,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
@@ -2800,7 +2800,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
@@ -2866,7 +2866,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C76" s="2" t="n">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C77" s="2" t="n">
@@ -2928,7 +2928,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
@@ -2959,7 +2959,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
@@ -2990,7 +2990,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C80" s="2" t="n">
@@ -3025,7 +3025,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C81" s="2" t="n">
@@ -3060,7 +3060,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C82" s="2" t="n">
@@ -3091,7 +3091,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C83" s="2" t="n">
@@ -3122,7 +3122,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
@@ -3153,7 +3153,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C85" s="2" t="n">
@@ -3184,7 +3184,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
@@ -3215,7 +3215,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C87" s="2" t="n">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C89" s="2" t="n">
@@ -3312,7 +3312,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
@@ -3343,7 +3343,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
@@ -3374,7 +3374,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
@@ -3405,7 +3405,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C94" s="2" t="n">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C95" s="2" t="n">
@@ -3506,7 +3506,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
@@ -3545,7 +3545,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C97" s="2" t="n">
@@ -3584,7 +3584,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">
@@ -3623,7 +3623,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C99" s="2" t="n">
@@ -3658,7 +3658,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C100" s="2" t="n">
@@ -3693,7 +3693,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C101" s="2" t="n">
@@ -3724,7 +3724,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
@@ -3763,7 +3763,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C103" s="2" t="n">
@@ -3802,7 +3802,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C104" s="2" t="n">
@@ -3841,7 +3841,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C105" s="2" t="n">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C106" s="2" t="n">
@@ -3915,7 +3915,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C107" s="2" t="n">
@@ -3950,7 +3950,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C108" s="2" t="n">
@@ -3981,7 +3981,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C109" s="2" t="n">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C110" s="2" t="n">
@@ -4059,7 +4059,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C111" s="2" t="n">
@@ -4098,7 +4098,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C112" s="2" t="n">
@@ -4137,7 +4137,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C113" s="2" t="n">
@@ -4172,7 +4172,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C114" s="2" t="n">
@@ -4207,7 +4207,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C115" s="2" t="n">
@@ -4238,7 +4238,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C116" s="2" t="n">
@@ -4277,7 +4277,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C117" s="2" t="n">
@@ -4316,7 +4316,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C118" s="2" t="n">
@@ -4355,7 +4355,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C119" s="2" t="n">
@@ -4394,7 +4394,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C120" s="2" t="n">
@@ -4429,7 +4429,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C121" s="2" t="n">
@@ -4464,7 +4464,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C122" s="2" t="n">
@@ -4495,7 +4495,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C123" s="2" t="n">
@@ -4534,7 +4534,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C124" s="2" t="n">
@@ -4573,7 +4573,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C125" s="2" t="n">
@@ -4612,7 +4612,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C126" s="2" t="n">
@@ -4651,7 +4651,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C127" s="2" t="n">
@@ -4686,7 +4686,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C128" s="2" t="n">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C129" s="2" t="n">
@@ -4752,7 +4752,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C130" s="2" t="n">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C131" s="2" t="n">
@@ -4830,7 +4830,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C132" s="2" t="n">
@@ -4869,7 +4869,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C133" s="2" t="n">
@@ -4908,7 +4908,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C134" s="2" t="n">
@@ -4943,7 +4943,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C135" s="2" t="n">
@@ -4978,7 +4978,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C136" s="2" t="n">
@@ -5009,7 +5009,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C137" s="2" t="n">
@@ -5050,7 +5050,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C138" s="2" t="n">
@@ -5091,7 +5091,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C139" s="2" t="n">
@@ -5169,7 +5169,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C141" s="2" t="n">
@@ -5210,7 +5210,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C142" s="2" t="n">
@@ -5247,7 +5247,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C143" s="2" t="n">
@@ -5284,7 +5284,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C144" s="2" t="n">
@@ -5315,7 +5315,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C145" s="2" t="n">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C146" s="2" t="n">
@@ -5397,7 +5397,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C147" s="2" t="n">
@@ -5475,7 +5475,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C149" s="2" t="n">
@@ -5516,7 +5516,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C150" s="2" t="n">
@@ -5553,7 +5553,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C151" s="2" t="n">
@@ -5621,7 +5621,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C153" s="2" t="n">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C154" s="2" t="n">
@@ -5691,7 +5691,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C155" s="2" t="n">
@@ -5730,7 +5730,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C156" s="2" t="n">
@@ -5769,7 +5769,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C157" s="2" t="n">
@@ -5808,7 +5808,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C158" s="2" t="n">
@@ -5843,7 +5843,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C159" s="2" t="n">
@@ -5909,7 +5909,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C161" s="2" t="n">
@@ -5940,7 +5940,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C162" s="2" t="n">
@@ -5981,7 +5981,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C163" s="2" t="n">
@@ -6022,7 +6022,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C164" s="2" t="n">
@@ -6100,7 +6100,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C166" s="2" t="n">
@@ -6141,7 +6141,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C167" s="2" t="n">
@@ -6178,7 +6178,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C168" s="2" t="n">
@@ -6246,7 +6246,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C170" s="2" t="n">
@@ -6277,7 +6277,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C171" s="2" t="n">
@@ -6318,7 +6318,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C172" s="2" t="n">
@@ -6359,7 +6359,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C173" s="2" t="n">
@@ -6437,7 +6437,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C175" s="2" t="n">
@@ -6478,7 +6478,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C176" s="2" t="n">
@@ -6515,7 +6515,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C177" s="2" t="n">
@@ -6583,7 +6583,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C179" s="2" t="n">
@@ -6614,7 +6614,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C180" s="2" t="n">
@@ -6655,7 +6655,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C181" s="2" t="n">
@@ -6696,7 +6696,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C182" s="2" t="n">
@@ -6774,7 +6774,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C184" s="2" t="n">
@@ -6815,7 +6815,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C185" s="2" t="n">
@@ -6852,7 +6852,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C186" s="2" t="n">
@@ -6920,7 +6920,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C188" s="2" t="n">
@@ -6951,7 +6951,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C189" s="2" t="n">
@@ -6992,7 +6992,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C190" s="2" t="n">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C191" s="2" t="n">
@@ -7111,7 +7111,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C193" s="2" t="n">
@@ -7152,7 +7152,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C194" s="2" t="n">
@@ -7189,7 +7189,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C195" s="2" t="n">
@@ -7257,7 +7257,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C197" s="2" t="n">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C198" s="2" t="n">
@@ -7329,7 +7329,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C199" s="2" t="n">
@@ -7370,7 +7370,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C200" s="2" t="n">
@@ -7448,7 +7448,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C202" s="2" t="n">
@@ -7489,7 +7489,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C203" s="2" t="n">
@@ -7526,7 +7526,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C204" s="2" t="n">
@@ -7594,7 +7594,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C206" s="2" t="n">
@@ -7625,7 +7625,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C207" s="2" t="n">
@@ -7666,7 +7666,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C208" s="2" t="n">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C209" s="2" t="n">
@@ -7785,7 +7785,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C211" s="2" t="n">
@@ -7826,7 +7826,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C212" s="2" t="n">
@@ -7863,7 +7863,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C213" s="2" t="n">
@@ -7931,7 +7931,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C215" s="2" t="n">
@@ -7962,7 +7962,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C216" s="2" t="n">
@@ -8003,7 +8003,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C217" s="2" t="n">
@@ -8044,7 +8044,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C218" s="2" t="n">
@@ -8122,7 +8122,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C220" s="2" t="n">
@@ -8163,7 +8163,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C221" s="2" t="n">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C222" s="2" t="n">
@@ -8268,7 +8268,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C224" s="2" t="n">
@@ -8299,7 +8299,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C225" s="2" t="n">
@@ -8340,7 +8340,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C226" s="2" t="n">
@@ -8381,7 +8381,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C227" s="2" t="n">
@@ -8459,7 +8459,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C229" s="2" t="n">
@@ -8500,7 +8500,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C230" s="2" t="n">
@@ -8537,7 +8537,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C231" s="2" t="n">
@@ -8605,7 +8605,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C233" s="2" t="n">
@@ -8636,7 +8636,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C234" s="2" t="n">
@@ -8675,7 +8675,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C235" s="2" t="n">
@@ -8714,7 +8714,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C236" s="2" t="n">
@@ -8753,7 +8753,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C237" s="2" t="n">
@@ -8792,7 +8792,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C238" s="2" t="n">
@@ -8827,7 +8827,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C239" s="2" t="n">
@@ -8893,7 +8893,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C241" s="2" t="n">
@@ -8924,7 +8924,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C242" s="2" t="n">
@@ -8965,7 +8965,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C243" s="2" t="n">
@@ -9006,7 +9006,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C244" s="2" t="n">
@@ -9084,7 +9084,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C246" s="2" t="n">
@@ -9125,7 +9125,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C247" s="2" t="n">
@@ -9162,7 +9162,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C248" s="2" t="n">
@@ -9230,7 +9230,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C250" s="2" t="n">
@@ -9261,7 +9261,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C251" s="2" t="n">
@@ -9302,7 +9302,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C252" s="2" t="n">
@@ -9343,7 +9343,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C253" s="2" t="n">
@@ -9421,7 +9421,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C255" s="2" t="n">
@@ -9462,7 +9462,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C256" s="2" t="n">
@@ -9499,7 +9499,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C257" s="2" t="n">
@@ -9567,7 +9567,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C259" s="2" t="n">
@@ -9598,7 +9598,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C260" s="2" t="n">
@@ -9639,7 +9639,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C261" s="2" t="n">
@@ -9680,7 +9680,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C262" s="2" t="n">
@@ -9758,7 +9758,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C264" s="2" t="n">
@@ -9799,7 +9799,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C265" s="2" t="n">
@@ -9836,7 +9836,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C266" s="2" t="n">
@@ -9904,7 +9904,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C268" s="2" t="n">
@@ -9935,7 +9935,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C269" s="2" t="n">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C270" s="2" t="n">
@@ -10017,7 +10017,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C271" s="2" t="n">
@@ -10095,7 +10095,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C273" s="2" t="n">
@@ -10136,7 +10136,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C274" s="2" t="n">
@@ -10173,7 +10173,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C275" s="2" t="n">
@@ -10241,7 +10241,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C277" s="2" t="n">
@@ -10272,7 +10272,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C278" s="2" t="n">
@@ -10313,7 +10313,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C279" s="2" t="n">
@@ -10354,7 +10354,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C280" s="2" t="n">
@@ -10432,7 +10432,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C282" s="2" t="n">
@@ -10473,7 +10473,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C283" s="2" t="n">
@@ -10510,7 +10510,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C284" s="2" t="n">
@@ -10578,7 +10578,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C286" s="2" t="n">
@@ -10613,7 +10613,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C287" s="2" t="n">
@@ -10654,7 +10654,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C288" s="2" t="n">
@@ -10695,7 +10695,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C289" s="2" t="n">
@@ -10773,7 +10773,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C291" s="2" t="n">
@@ -10814,7 +10814,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C292" s="2" t="n">
@@ -10851,7 +10851,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C293" s="2" t="n">
@@ -10919,7 +10919,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C295" s="2" t="n">
@@ -10954,7 +10954,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C296" s="2" t="n">
@@ -10995,7 +10995,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C297" s="2" t="n">
@@ -11036,7 +11036,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C298" s="2" t="n">
@@ -11114,7 +11114,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C300" s="2" t="n">
@@ -11155,7 +11155,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C301" s="2" t="n">
@@ -11192,7 +11192,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C302" s="2" t="n">
@@ -11260,7 +11260,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C304" s="2" t="n">
@@ -11295,7 +11295,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C305" s="2" t="n">
@@ -11336,7 +11336,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C306" s="2" t="n">
@@ -11377,7 +11377,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C307" s="2" t="n">
@@ -11455,7 +11455,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C309" s="2" t="n">
@@ -11496,7 +11496,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C310" s="2" t="n">
@@ -11533,7 +11533,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C311" s="2" t="n">
@@ -11601,7 +11601,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C313" s="2" t="n">
@@ -11636,7 +11636,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C314" s="2" t="n">
@@ -11677,7 +11677,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C315" s="2" t="n">
@@ -11718,7 +11718,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C316" s="2" t="n">
@@ -11796,7 +11796,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C318" s="2" t="n">
@@ -11837,7 +11837,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C319" s="2" t="n">
@@ -11874,7 +11874,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C320" s="2" t="n">
@@ -11942,7 +11942,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C322" s="2" t="n">
@@ -11977,7 +11977,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C323" s="2" t="n">
@@ -12016,7 +12016,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C324" s="2" t="n">
@@ -12055,7 +12055,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C325" s="2" t="n">
@@ -12094,7 +12094,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C326" s="2" t="n">
@@ -12133,7 +12133,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C327" s="2" t="n">
@@ -12168,7 +12168,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C328" s="2" t="n">
@@ -12234,7 +12234,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C330" s="2" t="n">
@@ -12269,7 +12269,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C331" s="2" t="n">
@@ -12310,7 +12310,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C332" s="2" t="n">
@@ -12351,7 +12351,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C333" s="2" t="n">
@@ -12429,7 +12429,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C335" s="2" t="n">
@@ -12470,7 +12470,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C336" s="2" t="n">
@@ -12507,7 +12507,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C337" s="2" t="n">
@@ -12575,7 +12575,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C339" s="2" t="n">
@@ -12616,7 +12616,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C340" s="2" t="n">
@@ -12653,7 +12653,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C341" s="2" t="n">
@@ -12694,7 +12694,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C342" s="2" t="n">
@@ -12772,7 +12772,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C344" s="2" t="n">
@@ -12813,7 +12813,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C345" s="2" t="n">
@@ -12850,7 +12850,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C346" s="2" t="n">
@@ -12918,7 +12918,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C348" s="2" t="n">
@@ -12959,7 +12959,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C349" s="2" t="n">
@@ -12996,7 +12996,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C350" s="2" t="n">
@@ -13037,7 +13037,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C351" s="2" t="n">
@@ -13115,7 +13115,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C353" s="2" t="n">
@@ -13156,7 +13156,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C354" s="2" t="n">
@@ -13193,7 +13193,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C355" s="2" t="n">
@@ -13261,7 +13261,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C357" s="2" t="n">
@@ -13302,7 +13302,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C358" s="2" t="n">
@@ -13339,7 +13339,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C359" s="2" t="n">
@@ -13380,7 +13380,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C360" s="2" t="n">
@@ -13458,7 +13458,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C362" s="2" t="n">
@@ -13499,7 +13499,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C363" s="2" t="n">
@@ -13536,7 +13536,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C364" s="2" t="n">
@@ -13604,7 +13604,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C366" s="2" t="n">
@@ -13645,7 +13645,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C367" s="2" t="n">
@@ -13682,7 +13682,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C368" s="2" t="n">
@@ -13723,7 +13723,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C369" s="2" t="n">
@@ -13801,7 +13801,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C371" s="2" t="n">
@@ -13842,7 +13842,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C372" s="2" t="n">
@@ -13879,7 +13879,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C373" s="2" t="n">
@@ -13947,7 +13947,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C375" s="2" t="n">
@@ -13988,7 +13988,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C376" s="2" t="n">
@@ -14025,7 +14025,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C377" s="2" t="n">
@@ -14066,7 +14066,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C378" s="2" t="n">
@@ -14144,7 +14144,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C380" s="2" t="n">
@@ -14185,7 +14185,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C381" s="2" t="n">
@@ -14222,7 +14222,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C382" s="2" t="n">
@@ -14290,7 +14290,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C384" s="2" t="n">
@@ -14331,7 +14331,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C385" s="2" t="n">
@@ -14368,7 +14368,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C386" s="2" t="n">
@@ -14409,7 +14409,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C387" s="2" t="n">
@@ -14487,7 +14487,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C389" s="2" t="n">
@@ -14528,7 +14528,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C390" s="2" t="n">
@@ -14565,7 +14565,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C391" s="2" t="n">
@@ -14633,7 +14633,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C393" s="2" t="n">
@@ -14707,7 +14707,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C395" s="2" t="n">
@@ -14742,7 +14742,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C396" s="2" t="n">
@@ -14777,7 +14777,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C397" s="2" t="n">
@@ -14812,7 +14812,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C398" s="2" t="n">
@@ -14847,7 +14847,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C399" s="2" t="n">
@@ -14878,7 +14878,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C400" s="2" t="n">
@@ -14940,7 +14940,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C402" s="2" t="n">
@@ -14981,7 +14981,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C403" s="2" t="n">
@@ -15018,7 +15018,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C404" s="2" t="n">
@@ -15059,7 +15059,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C405" s="2" t="n">
@@ -15137,7 +15137,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C407" s="2" t="n">
@@ -15178,7 +15178,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C408" s="2" t="n">
@@ -15215,7 +15215,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C409" s="2" t="n">
@@ -15283,7 +15283,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C411" s="2" t="n">
@@ -15324,7 +15324,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C412" s="2" t="n">
@@ -15361,7 +15361,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C413" s="2" t="n">
@@ -15402,7 +15402,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C414" s="2" t="n">
@@ -15480,7 +15480,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C416" s="2" t="n">
@@ -15521,7 +15521,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C417" s="2" t="n">
@@ -15558,7 +15558,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C418" s="2" t="n">
@@ -15626,7 +15626,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C420" s="2" t="n">
@@ -15700,7 +15700,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C422" s="2" t="n">
@@ -15739,7 +15739,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C423" s="2" t="n">
@@ -15778,7 +15778,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C424" s="2" t="n">
@@ -15817,7 +15817,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C425" s="2" t="n">
@@ -15856,7 +15856,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C426" s="2" t="n">
@@ -15891,7 +15891,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C427" s="2" t="n">
@@ -15957,7 +15957,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C429" s="2" t="n">
@@ -16031,7 +16031,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C431" s="2" t="n">
@@ -16070,7 +16070,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C432" s="2" t="n">
@@ -16109,7 +16109,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C433" s="2" t="n">
@@ -16148,7 +16148,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C434" s="2" t="n">
@@ -16187,7 +16187,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C435" s="2" t="n">
@@ -16222,7 +16222,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C436" s="2" t="n">
@@ -16288,7 +16288,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C438" s="2" t="n">
@@ -16362,7 +16362,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C440" s="2" t="n">
@@ -16401,7 +16401,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C441" s="2" t="n">
@@ -16440,7 +16440,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C442" s="2" t="n">
@@ -16479,7 +16479,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C443" s="2" t="n">
@@ -16518,7 +16518,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C444" s="2" t="n">
@@ -16553,7 +16553,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C445" s="2" t="n">
@@ -16619,7 +16619,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C447" s="2" t="n">
@@ -16660,7 +16660,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C448" s="2" t="n">
@@ -16697,7 +16697,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C449" s="2" t="n">
@@ -16738,7 +16738,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C450" s="2" t="n">
@@ -16816,7 +16816,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C452" s="2" t="n">
@@ -16857,7 +16857,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C453" s="2" t="n">
@@ -16894,7 +16894,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C454" s="2" t="n">
@@ -16962,7 +16962,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C456" s="2" t="n">
@@ -17036,7 +17036,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C458" s="2" t="n">
@@ -17075,7 +17075,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C459" s="2" t="n">
@@ -17114,7 +17114,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C460" s="2" t="n">
@@ -17153,7 +17153,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C461" s="2" t="n">
@@ -17192,7 +17192,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C462" s="2" t="n">
@@ -17227,7 +17227,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C463" s="2" t="n">
@@ -17293,7 +17293,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C465" s="2" t="n">
@@ -17367,7 +17367,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C467" s="2" t="n">
@@ -17406,7 +17406,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C468" s="2" t="n">
@@ -17445,7 +17445,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C469" s="2" t="n">
@@ -17484,7 +17484,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C470" s="2" t="n">
@@ -17523,7 +17523,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C471" s="2" t="n">
@@ -17558,7 +17558,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C472" s="2" t="n">
@@ -17624,7 +17624,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C474" s="2" t="n">
@@ -17663,7 +17663,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C475" s="2" t="n">
@@ -17702,7 +17702,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C476" s="2" t="n">
@@ -17741,7 +17741,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C477" s="2" t="n">
@@ -17780,7 +17780,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C478" s="2" t="n">
@@ -17815,7 +17815,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C479" s="2" t="n">
@@ -17850,7 +17850,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C480" s="2" t="n">

--- a/data/Lakes/LakeDuddingComposite_bf547b7d5c.xlsx
+++ b/data/Lakes/LakeDuddingComposite_bf547b7d5c.xlsx
@@ -67,7 +67,7 @@
     <t>Visual Clarity</t>
   </si>
   <si>
-    <t>BIOVOL</t>
+    <t>Cyanobacteria Biovolume</t>
   </si>
   <si>
     <t>0.0550</t>
